--- a/Excel/client_talent.xlsx
+++ b/Excel/client_talent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="145">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>攻击速度+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗饥渴范围+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃范围+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招CD-100,幽鬼之刃增加一个每秒+50伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,17 +889,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -2806,6 +2818,48 @@
       </c>
       <c r="D137" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" t="s">
+        <v>138</v>
+      </c>
+      <c r="D139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>138</v>
+      </c>
+      <c r="D140" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/client_talent.xlsx
+++ b/Excel/client_talent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="147">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,224 +317,233 @@
     <t>施法距离+2</t>
   </si>
   <si>
+    <t>攻击力+90</t>
+  </si>
+  <si>
+    <t>新月之痕技能冷却-9秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻象发球施法距离+4和速度+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新月之痕范围+3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦境缠绕拥有快速攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能增强+6%</t>
+  </si>
+  <si>
+    <t>挽歌伤害增加80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度+0.25</t>
+  </si>
+  <si>
+    <t>攻击加+72</t>
+  </si>
+  <si>
+    <t>影牙1,2,3伤害+120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影牙1降低敌人护甲-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命恢复+5</t>
+  </si>
+  <si>
+    <t>荒芜伤害+12</t>
+  </si>
+  <si>
+    <t>幽鬼之刃技能冷却时间-8秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃加速减速+14%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼影重重幻象攻击+32%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折射伤害减免改为+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却-15%</t>
+  </si>
+  <si>
+    <t>攻击速度+30</t>
+  </si>
+  <si>
+    <t>榴弹减速-14%</t>
+  </si>
+  <si>
+    <t>爆头击退+0.28</t>
+  </si>
+  <si>
+    <t>榴弹每秒伤害+24</t>
+  </si>
+  <si>
+    <t>攻击距离+1</t>
+  </si>
+  <si>
+    <t>榴弹能量+5</t>
+  </si>
+  <si>
+    <t>攻击速度+35</t>
+  </si>
+  <si>
+    <t>生命恢复+20</t>
+  </si>
+  <si>
+    <t>攻击触发反击螺旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战士之吼范围+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗饥渴伤害+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速+15</t>
+  </si>
+  <si>
+    <t>施法距离+3.5</t>
+  </si>
+  <si>
+    <t>月光冷却-3.5</t>
+  </si>
+  <si>
+    <t>移速+0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性+8</t>
+  </si>
+  <si>
+    <t>月光伤害+100</t>
+  </si>
+  <si>
+    <t>吸血+30%</t>
+  </si>
+  <si>
+    <t>月光眩晕+0.2秒</t>
+  </si>
+  <si>
+    <t>攻速+20</t>
+  </si>
+  <si>
+    <t>技能吸血+8%</t>
+  </si>
+  <si>
+    <t>皮肤腐蚀+5</t>
+  </si>
+  <si>
+    <t>蝮蛇突袭每秒伤害+80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力+70</t>
+  </si>
+  <si>
+    <t>剧毒造成沉默</t>
+  </si>
+  <si>
+    <t>毒性攻击移速-40%,攻速减40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法恢复+2.5</t>
+  </si>
+  <si>
+    <t>生命+325</t>
+  </si>
+  <si>
+    <t>电爆伤害+24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电吸时间+0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度+25</t>
+  </si>
+  <si>
+    <t>电爆无视BKB且为纯粹伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子影子伤害+65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞电每0.2秒释放一个电子影子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/初级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/中级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/高级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/史诗级天赋书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗级天赋A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗级天赋B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗饥渴范围+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃范围+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招CD-100,幽鬼之刃增加一个每秒+50伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能增强+15%</t>
-  </si>
-  <si>
-    <t>攻击力+90</t>
-  </si>
-  <si>
-    <t>新月之痕技能冷却-9秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻象发球施法距离+4和速度+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新月之痕范围+3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦境缠绕拥有快速攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能增强+6%</t>
-  </si>
-  <si>
-    <t>挽歌伤害增加80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度+0.25</t>
-  </si>
-  <si>
-    <t>攻击加+72</t>
-  </si>
-  <si>
-    <t>影牙1,2,3伤害+120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影牙1降低敌人护甲-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命恢复+5</t>
-  </si>
-  <si>
-    <t>荒芜伤害+12</t>
-  </si>
-  <si>
-    <t>幽鬼之刃技能冷却时间-8秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼之刃加速减速+14%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼影重重幻象攻击+32%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折射伤害减免改为+8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能冷却-15%</t>
-  </si>
-  <si>
-    <t>攻击速度+30</t>
-  </si>
-  <si>
-    <t>榴弹减速-14%</t>
-  </si>
-  <si>
-    <t>爆头击退+0.28</t>
-  </si>
-  <si>
-    <t>榴弹每秒伤害+24</t>
-  </si>
-  <si>
-    <t>攻击距离+1</t>
-  </si>
-  <si>
-    <t>榴弹能量+5</t>
-  </si>
-  <si>
-    <t>攻击速度+35</t>
-  </si>
-  <si>
-    <t>生命恢复+20</t>
-  </si>
-  <si>
-    <t>攻击触发反击螺旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂战士之吼范围+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗饥渴伤害+100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻速+15</t>
-  </si>
-  <si>
-    <t>施法距离+3.5</t>
-  </si>
-  <si>
-    <t>月光冷却-3.5</t>
-  </si>
-  <si>
-    <t>移速+0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全属性+8</t>
-  </si>
-  <si>
-    <t>月光伤害+100</t>
-  </si>
-  <si>
-    <t>吸血+30%</t>
-  </si>
-  <si>
-    <t>月光眩晕+0.2秒</t>
-  </si>
-  <si>
-    <t>攻速+20</t>
-  </si>
-  <si>
-    <t>技能吸血+8%</t>
-  </si>
-  <si>
-    <t>皮肤腐蚀+5</t>
-  </si>
-  <si>
-    <t>蝮蛇突袭每秒伤害+80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力+70</t>
-  </si>
-  <si>
-    <t>剧毒造成沉默</t>
-  </si>
-  <si>
-    <t>毒性攻击移速-40%,攻速减40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法恢复+2.5</t>
-  </si>
-  <si>
-    <t>生命+325</t>
-  </si>
-  <si>
-    <t>电爆伤害+24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电吸时间+0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度+25</t>
-  </si>
-  <si>
-    <t>电爆无视BKB且为纯粹伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子影子伤害+65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞电每0.2秒释放一个电子影子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/初级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/中级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/高级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/史诗级天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史诗级天赋A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史诗级天赋B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度+20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗饥渴范围+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼之刃范围+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼大招CD-100,幽鬼之刃增加一个每秒+50伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能增强+150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻象发球距离+4和子弹速度-2,并且散射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="P108" sqref="P108"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -938,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -952,10 +961,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -966,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -980,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -994,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1005,10 +1014,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -1019,10 +1028,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1036,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1050,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
@@ -1064,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -1078,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
@@ -1092,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>22</v>
@@ -1106,21 +1115,21 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
@@ -1131,10 +1140,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>25</v>
@@ -1148,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>27</v>
@@ -1162,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
@@ -1176,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -1190,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>30</v>
@@ -1204,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>31</v>
@@ -1218,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>32</v>
@@ -1229,10 +1238,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>33</v>
@@ -1243,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1260,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -1274,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
@@ -1288,13 +1297,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>36</v>
@@ -1316,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>37</v>
@@ -1330,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>38</v>
@@ -1341,10 +1350,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
@@ -1355,10 +1364,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>40</v>
@@ -1372,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>41</v>
@@ -1386,7 +1395,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>42</v>
@@ -1400,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>19</v>
@@ -1414,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>43</v>
@@ -1428,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>44</v>
@@ -1442,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>47</v>
@@ -1453,10 +1462,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
@@ -1467,10 +1476,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>46</v>
@@ -1484,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>48</v>
@@ -1498,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>49</v>
@@ -1512,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>50</v>
@@ -1526,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>51</v>
@@ -1540,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>52</v>
@@ -1554,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>53</v>
@@ -1565,10 +1574,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>54</v>
@@ -1579,10 +1588,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>55</v>
@@ -1596,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>56</v>
@@ -1610,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>57</v>
@@ -1624,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
         <v>58</v>
@@ -1638,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
         <v>59</v>
@@ -1652,7 +1661,7 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
         <v>60</v>
@@ -1666,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>61</v>
@@ -1677,10 +1686,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>62</v>
@@ -1691,10 +1700,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>63</v>
@@ -1708,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>64</v>
@@ -1722,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>65</v>
@@ -1736,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>66</v>
@@ -1750,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>67</v>
@@ -1764,7 +1773,7 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>68</v>
@@ -1778,7 +1787,7 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>69</v>
@@ -1789,10 +1798,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>70</v>
@@ -1803,10 +1812,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>71</v>
@@ -1820,7 +1829,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>72</v>
@@ -1834,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>75</v>
@@ -1848,7 +1857,7 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>73</v>
@@ -1862,7 +1871,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>74</v>
@@ -1876,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>76</v>
@@ -1890,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>77</v>
@@ -1901,10 +1910,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>78</v>
@@ -1915,10 +1924,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>79</v>
@@ -1932,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>80</v>
@@ -1946,7 +1955,7 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>81</v>
@@ -1960,10 +1969,10 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -1974,10 +1983,10 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -1988,10 +1997,10 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -2002,10 +2011,10 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -2013,13 +2022,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -2027,13 +2036,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -2044,10 +2053,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -2058,7 +2067,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -2072,10 +2081,10 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -2086,10 +2095,10 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -2100,10 +2109,10 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -2114,10 +2123,10 @@
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -2125,13 +2134,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -2139,10 +2148,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>79</v>
@@ -2156,10 +2165,10 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -2170,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -2184,10 +2193,10 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -2198,10 +2207,10 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -2212,7 +2221,7 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D94" t="s">
         <v>66</v>
@@ -2226,10 +2235,10 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -2237,13 +2246,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -2251,13 +2260,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -2268,10 +2277,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -2282,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" t="s">
         <v>26</v>
@@ -2296,10 +2305,10 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -2310,10 +2319,10 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -2324,10 +2333,10 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
@@ -2338,10 +2347,10 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -2349,13 +2358,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -2363,13 +2372,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -2380,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D106" t="s">
         <v>42</v>
@@ -2394,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D107" t="s">
         <v>56</v>
@@ -2408,7 +2417,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D108" t="s">
         <v>72</v>
@@ -2422,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
@@ -2436,10 +2445,10 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
@@ -2450,10 +2459,10 @@
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
@@ -2461,13 +2470,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -2475,13 +2484,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
@@ -2492,10 +2501,10 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
@@ -2506,10 +2515,10 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
@@ -2520,10 +2529,10 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
@@ -2534,10 +2543,10 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
@@ -2548,10 +2557,10 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
@@ -2562,10 +2571,10 @@
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
@@ -2573,13 +2582,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
@@ -2587,13 +2596,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
@@ -2604,10 +2613,10 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
@@ -2618,10 +2627,10 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
@@ -2632,10 +2641,10 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
@@ -2646,10 +2655,10 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
@@ -2660,10 +2669,10 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
@@ -2674,10 +2683,10 @@
         <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
@@ -2685,13 +2694,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
@@ -2699,13 +2708,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
@@ -2716,10 +2725,10 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
@@ -2730,10 +2739,10 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
@@ -2744,10 +2753,10 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
@@ -2758,10 +2767,10 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D133" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
@@ -2772,10 +2781,10 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
@@ -2786,10 +2795,10 @@
         <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
@@ -2797,13 +2806,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
@@ -2811,13 +2820,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
@@ -2825,13 +2834,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
@@ -2839,13 +2848,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
@@ -2853,13 +2862,41 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
+        <v>137</v>
+      </c>
+      <c r="D140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
         <v>138</v>
       </c>
-      <c r="D140" t="s">
-        <v>144</v>
+      <c r="C141" t="s">
+        <v>137</v>
+      </c>
+      <c r="D141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>137</v>
+      </c>
+      <c r="D142" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
